--- a/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_UluGlass_averaged.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Data_processing_SWRZ/Notebook_Compiled_data/SWRZ_UluGlass_averaged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,182 +436,147 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SiO2</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TiO2</t>
+          <t>Na2O_Gl</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Al2O3</t>
+          <t>Al2O3_Gl</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FeOt</t>
+          <t>P2O5_Gl</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MnO</t>
+          <t>CaO_Gl</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MgO</t>
+          <t>K2O_Gl</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CaO</t>
+          <t>TiO2_Gl</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Na2O</t>
+          <t>SiO2_Gl</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>K2O</t>
+          <t>MgO_Gl</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Cr2O3</t>
+          <t>FeOt_Gl</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P2O5</t>
+          <t>MnO_Gl</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>H2O</t>
+          <t>SO2_Gl</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Fe3Fet</t>
+          <t>Cl_Gl</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>NiO</t>
+          <t>Total_wt%_Gl</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>CoO</t>
+          <t>Mg#_Gl</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>CO2</t>
+          <t>Na2O_STD_Gl</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Sample_ID</t>
+          <t>Al2O3_STD_Gl</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Mg#</t>
+          <t>P2O5_STD_Gl</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>SiO2_STD</t>
+          <t>CaO_STD_Gl</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TiO2_STD</t>
+          <t>K2O_STD_Gl</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Al2O3_STD</t>
+          <t>TiO2_STD_Gl</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>FeOt_STD</t>
+          <t>SiO2_STD_Gl</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>MnO_STD</t>
+          <t>MgO_STD_Gl</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>MgO_STD</t>
+          <t>FeOt_STD_Gl</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>CaO_STD</t>
+          <t>MnO_STD_Gl</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Na2O_STD</t>
+          <t>SO2_STD_Gl</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>K2O_STD</t>
+          <t>Cl_STD_Gl</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Cr2O3_STD</t>
+          <t>Total_wt%_STD_Gl</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>P2O5_STD</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>H2O_STD</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Fe3Fet_STD</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>NiO_STD</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>CoO_STD</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>CO2_STD</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Mg#_STD</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>averaged?</t>
+          <t>averaged?_Gl</t>
         </is>
       </c>
     </row>
@@ -619,114 +584,93 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>50.00389</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>2.41734</v>
+        <v>2.12801</v>
       </c>
       <c r="D2" t="n">
         <v>12.511455</v>
       </c>
       <c r="E2" t="n">
+        <v>0.21128</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.547185</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.43435</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.41734</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50.00389</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.580545000000001</v>
+      </c>
+      <c r="K2" t="n">
         <v>11.0444</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>0.37787</v>
       </c>
-      <c r="G2" t="n">
-        <v>8.580545000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.547185</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.12801</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.43435</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.21128</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.021205</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.01276</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>98.29026</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.31717303071684</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
+        <v>0.04709342251784689</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1742315484412116</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6278172676233744</v>
+        <v>0.02192511497499309</v>
       </c>
       <c r="T2" t="n">
+        <v>0.1853741817244248</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.01052040345656425</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.03516656240110925</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.4610622624861961</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.03516656240110925</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1742315484412116</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
+        <v>0.4051107053427907</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.148410231004021</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.01706863920892479</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.4051107053427907</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1853741817244248</v>
-      </c>
       <c r="AA2" t="n">
-        <v>0.04709342251784689</v>
+        <v>0.003451686383333353</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01052040345656425</v>
+        <v>0.002361826035554317</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.02192511497499309</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.01067667168173493</v>
-      </c>
-      <c r="AK2" t="inlineStr">
+        <v>0.5226876578480366</v>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
